--- a/db_structure/001. Purchase Enquiry.xlsx
+++ b/db_structure/001. Purchase Enquiry.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,6 +518,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -553,6 +570,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -731,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +819,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -799,7 +833,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -813,7 +847,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -827,7 +861,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -841,7 +875,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -863,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db_structure/001. Purchase Enquiry.xlsx
+++ b/db_structure/001. Purchase Enquiry.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8906E83E-C1F4-4EDF-9305-2C88E6777EBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
   <si>
     <t>Purchase Enquiry Header</t>
   </si>
@@ -363,12 +364,18 @@
   </si>
   <si>
     <t>det_ptm_con</t>
+  </si>
+  <si>
+    <t>New Version Sql</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -762,11 +769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,9 +783,10 @@
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -787,14 +795,14 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -803,7 +811,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
@@ -816,8 +824,11 @@
       <c r="F6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>85</v>
       </c>
@@ -830,8 +841,11 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>86</v>
       </c>
@@ -844,8 +858,11 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>87</v>
       </c>
@@ -858,8 +875,11 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>88</v>
       </c>
@@ -872,8 +892,11 @@
       <c r="F10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>89</v>
       </c>
@@ -885,6 +908,9 @@
       </c>
       <c r="F11" t="s">
         <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -894,11 +920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
